--- a/docs/accounting/v8-v9/02_sell_item.xlsx
+++ b/docs/accounting/v8-v9/02_sell_item.xlsx
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
